--- a/Natural gas production volume (stat kg).xlsx
+++ b/Natural gas production volume (stat kg).xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d.saltanat\Desktop\Мобильное прилож\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13830" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13836" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Объем добычи природного газа" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>Объем добычи природного газа</t>
-  </si>
-  <si>
-    <t>Natural gas production</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Көрсөткүчтөрдүн аталыштары</t>
   </si>
@@ -52,67 +41,6 @@
   </si>
   <si>
     <t>Jalal-Abat oblast</t>
-  </si>
-  <si>
-    <t>Жаратылыш газын өндүрүүнүн көлөмү</t>
-  </si>
-  <si>
-    <r>
-      <t>млн. м</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>million m</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   2024 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> - алдын ала маалыматтар</t>
-    </r>
   </si>
   <si>
     <r>
@@ -131,54 +59,6 @@
       <t xml:space="preserve"> 1</t>
     </r>
   </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  2024 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> - предварительные данные</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2024 </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> - preliminary data</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -189,7 +69,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,22 +77,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -260,30 +124,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <i/>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -294,13 +134,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -313,13 +146,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -365,86 +191,75 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -510,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -545,7 +360,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -754,274 +569,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="32.85546875" style="3" customWidth="1"/>
-    <col min="4" max="12" width="9.140625" style="3" customWidth="1"/>
+    <col min="1" max="3" width="32.88671875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:22" ht="15" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17">
+        <v>2006</v>
+      </c>
+      <c r="E1" s="17">
+        <v>2007</v>
+      </c>
+      <c r="F1" s="17">
+        <v>2008</v>
+      </c>
+      <c r="G1" s="17">
+        <v>2009</v>
+      </c>
+      <c r="H1" s="17">
+        <v>2010</v>
+      </c>
+      <c r="I1" s="17">
+        <v>2011</v>
+      </c>
+      <c r="J1" s="17">
+        <v>2012</v>
+      </c>
+      <c r="K1" s="18">
+        <v>2013</v>
+      </c>
+      <c r="L1" s="18">
+        <v>2014</v>
+      </c>
+      <c r="M1" s="19">
+        <v>2015</v>
+      </c>
+      <c r="N1" s="19">
+        <v>2016</v>
+      </c>
+      <c r="O1" s="19">
+        <v>2017</v>
+      </c>
+      <c r="P1" s="18">
+        <v>2018</v>
+      </c>
+      <c r="Q1" s="20">
+        <v>2019</v>
+      </c>
+      <c r="R1" s="20">
+        <v>2020</v>
+      </c>
+      <c r="S1" s="20">
+        <v>2021</v>
+      </c>
+      <c r="T1" s="20">
+        <v>2022</v>
+      </c>
+      <c r="U1" s="20">
+        <v>2023</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E2" s="12">
+        <v>15</v>
+      </c>
+      <c r="F2" s="11">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G2" s="11">
+        <v>15.4</v>
+      </c>
+      <c r="H2" s="11">
+        <v>22.8</v>
+      </c>
+      <c r="I2" s="11">
+        <v>26.6</v>
+      </c>
+      <c r="J2" s="11">
+        <v>28.5</v>
+      </c>
+      <c r="K2" s="13">
+        <v>32.5</v>
+      </c>
+      <c r="L2" s="11">
+        <v>32.5</v>
+      </c>
+      <c r="M2" s="11">
+        <v>31.6</v>
+      </c>
+      <c r="N2" s="11">
+        <v>28.9</v>
+      </c>
+      <c r="O2" s="12">
+        <v>26</v>
+      </c>
+      <c r="P2" s="11">
+        <v>27.3</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>24.4</v>
+      </c>
+      <c r="R2" s="11">
+        <v>22.4</v>
+      </c>
+      <c r="S2" s="11">
+        <v>22.2</v>
+      </c>
+      <c r="T2" s="21">
+        <v>29.9</v>
+      </c>
+      <c r="U2" s="21">
+        <v>27.4</v>
+      </c>
+      <c r="V2" s="21">
+        <v>28.2</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1">
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
+    <row r="3" spans="1:22" ht="15" thickBot="1">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="14">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E3" s="15">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G3" s="14">
+        <v>15.4</v>
+      </c>
+      <c r="H3" s="14">
+        <v>22.8</v>
+      </c>
+      <c r="I3" s="14">
+        <v>26.6</v>
+      </c>
+      <c r="J3" s="14">
+        <v>28.5</v>
+      </c>
+      <c r="K3" s="16">
+        <v>32.5</v>
+      </c>
+      <c r="L3" s="14">
+        <v>32.5</v>
+      </c>
+      <c r="M3" s="14">
+        <v>31.6</v>
+      </c>
+      <c r="N3" s="14">
+        <v>28.9</v>
+      </c>
+      <c r="O3" s="15">
+        <v>26</v>
+      </c>
+      <c r="P3" s="14">
+        <v>27.3</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>24.4</v>
+      </c>
+      <c r="R3" s="14">
+        <v>22.4</v>
+      </c>
+      <c r="S3" s="14">
+        <v>22.2</v>
+      </c>
+      <c r="T3" s="22">
+        <v>29.9</v>
+      </c>
+      <c r="U3" s="22">
+        <v>27.4</v>
+      </c>
+      <c r="V3" s="22">
+        <v>28.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="23">
-        <v>2006</v>
-      </c>
-      <c r="E4" s="23">
-        <v>2007</v>
-      </c>
-      <c r="F4" s="23">
-        <v>2008</v>
-      </c>
-      <c r="G4" s="23">
-        <v>2009</v>
-      </c>
-      <c r="H4" s="23">
-        <v>2010</v>
-      </c>
-      <c r="I4" s="23">
-        <v>2011</v>
-      </c>
-      <c r="J4" s="23">
-        <v>2012</v>
-      </c>
-      <c r="K4" s="24">
-        <v>2013</v>
-      </c>
-      <c r="L4" s="24">
-        <v>2014</v>
-      </c>
-      <c r="M4" s="25">
-        <v>2015</v>
-      </c>
-      <c r="N4" s="25">
-        <v>2016</v>
-      </c>
-      <c r="O4" s="25">
-        <v>2017</v>
-      </c>
-      <c r="P4" s="24">
-        <v>2018</v>
-      </c>
-      <c r="Q4" s="26">
-        <v>2019</v>
-      </c>
-      <c r="R4" s="26">
-        <v>2020</v>
-      </c>
-      <c r="S4" s="26">
-        <v>2021</v>
-      </c>
-      <c r="T4" s="26">
-        <v>2022</v>
-      </c>
-      <c r="U4" s="26">
-        <v>2023</v>
-      </c>
-      <c r="V4" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="17">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E5" s="18">
-        <v>15</v>
-      </c>
-      <c r="F5" s="17">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="G5" s="17">
-        <v>15.4</v>
-      </c>
-      <c r="H5" s="17">
-        <v>22.8</v>
-      </c>
-      <c r="I5" s="17">
-        <v>26.6</v>
-      </c>
-      <c r="J5" s="17">
-        <v>28.5</v>
-      </c>
-      <c r="K5" s="19">
-        <v>32.5</v>
-      </c>
-      <c r="L5" s="17">
-        <v>32.5</v>
-      </c>
-      <c r="M5" s="17">
-        <v>31.6</v>
-      </c>
-      <c r="N5" s="17">
-        <v>28.9</v>
-      </c>
-      <c r="O5" s="18">
-        <v>26</v>
-      </c>
-      <c r="P5" s="17">
-        <v>27.3</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>24.4</v>
-      </c>
-      <c r="R5" s="17">
-        <v>22.4</v>
-      </c>
-      <c r="S5" s="17">
-        <v>22.2</v>
-      </c>
-      <c r="T5" s="28">
-        <v>29.9</v>
-      </c>
-      <c r="U5" s="28">
-        <v>27.4</v>
-      </c>
-      <c r="V5" s="28">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="E6" s="21">
-        <v>15</v>
-      </c>
-      <c r="F6" s="20">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="G6" s="20">
-        <v>15.4</v>
-      </c>
-      <c r="H6" s="20">
-        <v>22.8</v>
-      </c>
-      <c r="I6" s="20">
-        <v>26.6</v>
-      </c>
-      <c r="J6" s="20">
-        <v>28.5</v>
-      </c>
-      <c r="K6" s="22">
-        <v>32.5</v>
-      </c>
-      <c r="L6" s="20">
-        <v>32.5</v>
-      </c>
-      <c r="M6" s="20">
-        <v>31.6</v>
-      </c>
-      <c r="N6" s="20">
-        <v>28.9</v>
-      </c>
-      <c r="O6" s="21">
-        <v>26</v>
-      </c>
-      <c r="P6" s="20">
-        <v>27.3</v>
-      </c>
-      <c r="Q6" s="20">
-        <v>24.4</v>
-      </c>
-      <c r="R6" s="20">
-        <v>22.4</v>
-      </c>
-      <c r="S6" s="20">
-        <v>22.2</v>
-      </c>
-      <c r="T6" s="29">
-        <v>29.9</v>
-      </c>
-      <c r="U6" s="29">
-        <v>27.4</v>
-      </c>
-      <c r="V6" s="29">
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>17</v>
-      </c>
+    <row r="4" spans="1:22">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Natural gas production volume (stat kg).xlsx
+++ b/Natural gas production volume (stat kg).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Көрсөткүчтөрдүн аталыштары</t>
   </si>
@@ -41,23 +41,6 @@
   </si>
   <si>
     <t>Jalal-Abat oblast</t>
-  </si>
-  <si>
-    <r>
-      <t>2024</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -69,7 +52,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0\ _₽_-;\-* #,##0.0\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,15 +117,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
@@ -258,8 +232,8 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -571,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -645,11 +619,9 @@
       <c r="U1" s="20">
         <v>2023</v>
       </c>
-      <c r="V1" s="20" t="s">
-        <v>9</v>
-      </c>
+      <c r="V1" s="20"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" ht="15" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -659,7 +631,7 @@
       <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="14">
         <v>19.399999999999999</v>
       </c>
       <c r="E2" s="12">
@@ -713,9 +685,7 @@
       <c r="U2" s="21">
         <v>27.4</v>
       </c>
-      <c r="V2" s="21">
-        <v>28.2</v>
-      </c>
+      <c r="V2" s="21"/>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1">
       <c r="A3" s="10" t="s">
@@ -781,9 +751,7 @@
       <c r="U3" s="22">
         <v>27.4</v>
       </c>
-      <c r="V3" s="22">
-        <v>28.2</v>
-      </c>
+      <c r="V3" s="22"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="23"/>
